--- a/Mateo_ventana200.xlsx
+++ b/Mateo_ventana200.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE65DE7E-8A6A-422C-B301-BEED5F8F6F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98748523-22FC-43D4-B336-93AD0615C00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1399,15 +1399,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="D327" sqref="D327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8182,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D326" si="5">IF(C323=B323,1,0)</f>
+        <f t="shared" ref="D323:D325" si="5">IF(C323=B323,1,0)</f>
         <v>1</v>
       </c>
       <c r="E323">
@@ -8215,43 +8216,22 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325">
         <v>1</v>
       </c>
       <c r="D325">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E325">
-        <v>606.8900146484375</v>
+        <v>604.030029296875</v>
       </c>
       <c r="F325">
-        <v>600.77001953125</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="2">
-        <v>45695</v>
-      </c>
-      <c r="B326">
-        <v>1</v>
-      </c>
-      <c r="C326">
-        <v>1</v>
-      </c>
-      <c r="D326">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E326">
-        <v>604.030029296875</v>
-      </c>
-      <c r="F326">
         <v>604.8499755859375</v>
       </c>
     </row>
